--- a/Шаблон таблицы тест кейсов.xlsx
+++ b/Шаблон таблицы тест кейсов.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
   <si>
     <t>passed</t>
   </si>
@@ -1140,12 +1140,27 @@
   <si>
     <t>На странице отображены видеозаписи с названием "Покахонтас"</t>
   </si>
+  <si>
+    <t>Браузер</t>
+  </si>
+  <si>
+    <t>Билд</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Общее Passed</t>
+  </si>
+  <si>
+    <t>Общее Failed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,6 +1254,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1266,7 +1290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1343,11 +1367,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1408,6 +1443,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1417,27 +1467,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1775,7 +1817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1828,13 +1870,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Worksheet____5" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1862,223 +1904,133 @@
     <col min="21" max="21" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:26">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="K1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="S1" s="30"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="K2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="S2" s="30"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="35">
+        <v>44147</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="S3" s="30"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="K4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="S4" s="30"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="K5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="S5" s="30"/>
+    </row>
+    <row r="6" spans="1:26" ht="27" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="25" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="22" t="s">
+      <c r="J6" s="28"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="22" t="s">
+      <c r="M6" s="9"/>
+      <c r="N6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="74.25" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="66.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="75" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="60.75" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="5"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="5"/>
+      <c r="P6" s="27"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="5"/>
+      <c r="R6" s="27"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="5"/>
+      <c r="T6" s="27"/>
       <c r="U6" s="9"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -2086,35 +2038,31 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="137.25" customHeight="1">
+    <row r="7" spans="1:26" ht="72.75" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="5"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="5"/>
+      <c r="N7" s="27"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="5"/>
+      <c r="P7" s="27"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="5"/>
+      <c r="R7" s="27"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="5"/>
+      <c r="T7" s="27"/>
       <c r="U7" s="9"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2122,27 +2070,31 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="120" customHeight="1">
+    <row r="8" spans="1:26" ht="74.25" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
       <c r="J8" s="11"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="5"/>
       <c r="O8" s="9"/>
@@ -2158,27 +2110,29 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="47.1" customHeight="1">
+    <row r="9" spans="1:26" ht="66.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
       <c r="J9" s="11"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="5"/>
       <c r="O9" s="9"/>
@@ -2194,26 +2148,29 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="294" customHeight="1">
+    <row r="10" spans="1:26" ht="75" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="3">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="11"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="5"/>
       <c r="O10" s="9"/>
@@ -2229,27 +2186,29 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="294" customHeight="1">
+    <row r="11" spans="1:26" ht="60.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
       <c r="J11" s="11"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="36" t="s">
+        <v>1</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="5"/>
       <c r="O11" s="9"/>
@@ -2265,22 +2224,20 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="124.5" customHeight="1">
+    <row r="12" spans="1:26" ht="137.25" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>44</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="11"/>
@@ -2303,20 +2260,20 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="177" customHeight="1">
+    <row r="13" spans="1:26" ht="120" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="11"/>
@@ -2339,20 +2296,20 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="182.25" customHeight="1">
+    <row r="14" spans="1:26" ht="47.1" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="11"/>
@@ -2375,20 +2332,19 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="179.25" customHeight="1">
+    <row r="15" spans="1:26" ht="294" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>8</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>69</v>
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="11"/>
@@ -2411,22 +2367,20 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="82.5" customHeight="1">
+    <row r="16" spans="1:26" ht="294" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>49</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="11"/>
@@ -2449,20 +2403,22 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="119.25" customHeight="1">
+    <row r="17" spans="1:26" ht="124.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="11"/>
@@ -2485,22 +2441,20 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="229.5" customHeight="1">
+    <row r="18" spans="1:26" ht="177" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>77</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="11"/>
@@ -2523,20 +2477,20 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="175.5" customHeight="1">
+    <row r="19" spans="1:26" ht="182.25" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="11"/>
@@ -2559,22 +2513,20 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="171" customHeight="1">
+    <row r="20" spans="1:26" ht="179.25" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>60</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="11"/>
@@ -2597,20 +2549,22 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="193.5" customHeight="1">
+    <row r="21" spans="1:26" ht="82.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="11"/>
@@ -2633,22 +2587,20 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="193.5" customHeight="1">
+    <row r="22" spans="1:26" ht="119.25" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>60</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="11"/>
@@ -2671,22 +2623,22 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="115.5" customHeight="1">
+    <row r="23" spans="1:26" ht="229.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="11"/>
@@ -2709,22 +2661,20 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="142.5" customHeight="1">
+    <row r="24" spans="1:26" ht="175.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="3">
-        <v>22</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>83</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C24" s="21"/>
       <c r="D24" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="11"/>
@@ -2747,22 +2697,22 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="193.5" customHeight="1">
+    <row r="25" spans="1:26" ht="171" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="11"/>
@@ -2788,19 +2738,17 @@
     <row r="26" spans="1:26" ht="193.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="3">
-        <v>24</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>90</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="11"/>
@@ -2826,19 +2774,19 @@
     <row r="27" spans="1:26" ht="193.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="11"/>
@@ -2861,22 +2809,22 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="193.5" customHeight="1">
+    <row r="28" spans="1:26" ht="115.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="11"/>
@@ -2899,22 +2847,22 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="193.5" customHeight="1">
+    <row r="29" spans="1:26" ht="142.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="11"/>
@@ -2940,17 +2888,19 @@
     <row r="30" spans="1:26" ht="193.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="3">
-        <v>28</v>
-      </c>
-      <c r="C30" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="D30" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="11"/>
@@ -2976,17 +2926,19 @@
     <row r="31" spans="1:26" ht="193.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="3">
-        <v>29</v>
-      </c>
-      <c r="C31" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="D31" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="11"/>
@@ -3012,17 +2964,19 @@
     <row r="32" spans="1:26" ht="193.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="3">
-        <v>30</v>
-      </c>
-      <c r="C32" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="D32" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="11"/>
@@ -3048,17 +3002,19 @@
     <row r="33" spans="1:26" ht="193.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="3">
-        <v>31</v>
-      </c>
-      <c r="C33" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="D33" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="11"/>
@@ -3084,17 +3040,19 @@
     <row r="34" spans="1:26" ht="193.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="3">
-        <v>32</v>
-      </c>
-      <c r="C34" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="D34" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="11"/>
@@ -3120,17 +3078,17 @@
     <row r="35" spans="1:26" ht="193.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="11"/>
@@ -3156,17 +3114,17 @@
     <row r="36" spans="1:26" ht="193.5" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="11"/>
@@ -3192,17 +3150,17 @@
     <row r="37" spans="1:26" ht="193.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="11"/>
@@ -3228,17 +3186,17 @@
     <row r="38" spans="1:26" ht="193.5" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="11"/>
@@ -3264,17 +3222,17 @@
     <row r="39" spans="1:26" ht="193.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="3">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="11"/>
@@ -3297,242 +3255,283 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="15"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
+    <row r="40" spans="1:26" ht="193.5" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="3">
+        <v>33</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="15"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="13">
-        <f>COUNTA(D3:D39)</f>
-        <v>37</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
+    <row r="41" spans="1:26" ht="193.5" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3">
+        <v>34</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="15"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="13">
-        <f>COUNT(J3:J39)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
+    <row r="42" spans="1:26" ht="193.5" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="3">
+        <v>35</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
+    <row r="43" spans="1:26" ht="193.5" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="3">
+        <v>36</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="9"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
+    <row r="44" spans="1:26" ht="193.5" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="3">
+        <v>37</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="9"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
+    <row r="45" spans="1:26">
+      <c r="A45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="13">
+        <f>COUNTA(D8:D44)</f>
+        <v>37</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="13">
+        <f>COUNT(J8:J44)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -3559,8 +3558,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:26" ht="14.25" customHeight="1">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3587,7 +3585,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="14.25" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3729,6 +3727,25 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
@@ -3738,6 +3755,25 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
@@ -3746,29 +3782,131 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="1"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="1"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="Z62" s="2"/>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="Z63" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T3:T39 P3:P39 R3:R39 L3:L39 N3:N39">
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T44 P8:P44 R8:R44 L8:L44 N8:N44">
       <formula1>Result</formula1>
     </dataValidation>
   </dataValidations>
